--- a/docs/BKL_idActiviteitTR_balActiviteit_15102024_oud.xlsx
+++ b/docs/BKL_idActiviteitTR_balActiviteit_15102024_oud.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.bresters.GNM\OneDrive - Geonovum\Documenten - IMEV\General\5 Werkdossier\Wijzigingsvoorstellen\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\IMEV\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A51890-B164-4767-A9A3-8A38FE027F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC26B712-2427-44A4-BED0-927D6ED06385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{844FE34F-A838-44B3-A6FA-B77DA628BB98}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{844FE34F-A838-44B3-A6FA-B77DA628BB98}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatie Bkl-Bal-idActiviteitTR" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="308">
   <si>
     <t>IMEV_nr.</t>
   </si>
@@ -443,9 +443,6 @@
     <t>3.8.6</t>
   </si>
   <si>
-    <t xml:space="preserve">3.286f </t>
-  </si>
-  <si>
     <t>3.8.10</t>
   </si>
   <si>
@@ -512,9 +509,6 @@
     <t>3.4.3</t>
   </si>
   <si>
-    <t>3.101a, b, c, d</t>
-  </si>
-  <si>
     <t>6.1.24</t>
   </si>
   <si>
@@ -767,9 +761,6 @@
     <t>3.8.9</t>
   </si>
   <si>
-    <t>3.295b</t>
-  </si>
-  <si>
     <t>6.1.38</t>
   </si>
   <si>
@@ -957,13 +948,25 @@
   </si>
   <si>
     <t>idActiviteitTR</t>
+  </si>
+  <si>
+    <t>3.101 lid 1a, b, c, d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.286 lid 1f </t>
+  </si>
+  <si>
+    <t>3.295 lid 1b</t>
+  </si>
+  <si>
+    <t>Datum laatste aanpassing 22-11-2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1001,6 +1004,11 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Tenorite"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <name val="Tenorite"/>
     </font>
   </fonts>
@@ -1158,7 +1166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1195,13 +1203,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1218,6 +1220,21 @@
     <xf numFmtId="49" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1560,10 +1577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D483466F-747C-4A0C-8EEC-B3810E5C7C22}">
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1583,491 +1600,464 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="31"/>
+      <c r="K3" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="31"/>
+      <c r="K4" s="29"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="31"/>
+      <c r="K5" s="29"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="31"/>
+      <c r="K6" s="29"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="9"/>
-      <c r="K7" s="31"/>
+      <c r="K7" s="29"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="31"/>
+      <c r="K8" s="29"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="31"/>
+      <c r="K9" s="29"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="31"/>
+      <c r="K10" s="29"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="31"/>
+      <c r="K11" s="29"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="31"/>
+      <c r="K12" s="29"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="31"/>
+      <c r="K13" s="29"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="31"/>
+      <c r="K14" s="29"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>104</v>
+        <v>96</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="31" t="s">
-        <v>107</v>
-      </c>
+      <c r="K15" s="29"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>112</v>
+        <v>103</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>104</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="31" t="s">
-        <v>115</v>
+      <c r="K16" s="29" t="s">
+        <v>107</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
@@ -2075,159 +2065,159 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>119</v>
+        <v>111</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>112</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="31"/>
+      <c r="K17" s="29" t="s">
+        <v>115</v>
+      </c>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="31"/>
+      <c r="K18" s="29"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K19" s="31"/>
+        <v>126</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="29"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="31" t="s">
-        <v>143</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="29"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>148</v>
+        <v>139</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>140</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>150</v>
+        <v>141</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>141</v>
       </c>
       <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="31" t="s">
-        <v>151</v>
+      <c r="I21" s="30"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="29" t="s">
+        <v>142</v>
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
@@ -2235,93 +2225,93 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>158</v>
+        <v>146</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>149</v>
       </c>
       <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="31"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="29" t="s">
+        <v>150</v>
+      </c>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>148</v>
+        <v>154</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>155</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>304</v>
       </c>
       <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="31" t="s">
-        <v>163</v>
-      </c>
+      <c r="I23" s="30"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="29"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>106</v>
+        <v>148</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>160</v>
       </c>
       <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="31" t="s">
-        <v>167</v>
+      <c r="I24" s="30"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="29" t="s">
+        <v>161</v>
       </c>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
@@ -2329,31 +2319,31 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>112</v>
+        <v>164</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>104</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>171</v>
+        <v>105</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="31" t="s">
-        <v>172</v>
+      <c r="I25" s="30"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="29" t="s">
+        <v>165</v>
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
@@ -2361,413 +2351,413 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>177</v>
+        <v>168</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>112</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>179</v>
+        <v>113</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>169</v>
       </c>
       <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="31"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="29" t="s">
+        <v>170</v>
+      </c>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>183</v>
+        <v>176</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>177</v>
       </c>
       <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="31"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="29"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>188</v>
+        <v>119</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="K28" s="31"/>
+        <v>120</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="29"/>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>12</v>
+        <v>185</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>186</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="31" t="s">
-        <v>196</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="J29" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="K29" s="29"/>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>201</v>
+        <v>192</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>203</v>
+        <v>13</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>193</v>
       </c>
       <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="31"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="29" t="s">
+        <v>194</v>
+      </c>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>208</v>
+        <v>200</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>201</v>
       </c>
       <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="31"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="29"/>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="G32" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="K32" s="31"/>
+      <c r="G32" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="H32" s="8"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="29"/>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="K33" s="31"/>
+        <v>134</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="J33" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="K33" s="29"/>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>230</v>
+        <v>219</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>220</v>
       </c>
       <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="31"/>
+      <c r="I34" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="J34" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="K34" s="29"/>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>235</v>
+        <v>227</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>228</v>
       </c>
       <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="31" t="s">
-        <v>236</v>
-      </c>
+      <c r="I35" s="30"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="29"/>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>241</v>
+        <v>140</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>243</v>
+        <v>233</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>233</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="31"/>
+      <c r="K36" s="29" t="s">
+        <v>234</v>
+      </c>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>248</v>
+        <v>238</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>239</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>250</v>
+        <v>240</v>
+      </c>
+      <c r="G37" s="30" t="s">
+        <v>306</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="9"/>
-      <c r="K37" s="31" t="s">
-        <v>251</v>
-      </c>
+      <c r="K37" s="29"/>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>248</v>
+        <v>244</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>245</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>250</v>
+        <v>246</v>
+      </c>
+      <c r="G38" s="30" t="s">
+        <v>247</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="9"/>
-      <c r="K38" s="31" t="s">
-        <v>256</v>
+      <c r="K38" s="29" t="s">
+        <v>248</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
@@ -2775,31 +2765,31 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>261</v>
+        <v>252</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>245</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="H39" s="8"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="31" t="s">
-        <v>264</v>
+      <c r="I39" s="8"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="29" t="s">
+        <v>253</v>
       </c>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
@@ -2807,31 +2797,31 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="E40" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H40" s="8"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="29" t="s">
         <v>261</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="31" t="s">
-        <v>269</v>
       </c>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
@@ -2839,31 +2829,31 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>261</v>
+        <v>265</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>258</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="9"/>
-      <c r="K41" s="31" t="s">
-        <v>274</v>
+      <c r="K41" s="29" t="s">
+        <v>266</v>
       </c>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
@@ -2871,155 +2861,155 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>279</v>
+        <v>270</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>258</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="9"/>
-      <c r="K42" s="31"/>
+      <c r="K42" s="29" t="s">
+        <v>271</v>
+      </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>261</v>
+        <v>275</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>276</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="9"/>
-      <c r="K43" s="31" t="s">
-        <v>286</v>
-      </c>
+      <c r="K43" s="29"/>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="E44" s="25" t="s">
-        <v>279</v>
+        <v>282</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>258</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="9"/>
-      <c r="K44" s="31"/>
+      <c r="K44" s="29" t="s">
+        <v>283</v>
+      </c>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="F45" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="G45" s="24" t="s">
-        <v>142</v>
+        <v>287</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="9"/>
-      <c r="K45" s="31" t="s">
-        <v>295</v>
-      </c>
+      <c r="K45" s="29"/>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="E46" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F46" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="F46" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="G46" s="24" t="s">
-        <v>142</v>
+      <c r="G46" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="9"/>
-      <c r="K46" s="31" t="s">
-        <v>300</v>
+      <c r="K46" s="29" t="s">
+        <v>292</v>
       </c>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
@@ -3027,48 +3017,70 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E47" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F47" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="F47" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="G47" s="24" t="s">
-        <v>142</v>
+      <c r="G47" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="9"/>
-      <c r="K47" s="31" t="s">
-        <v>305</v>
+      <c r="K47" s="29" t="s">
+        <v>297</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C48" s="16"/>
-      <c r="F48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
+      <c r="A48" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="29" t="s">
+        <v>302</v>
+      </c>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
     </row>
     <row r="49" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C49" s="17"/>
+      <c r="C49" s="16"/>
       <c r="F49" s="11"/>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
@@ -3088,7 +3100,7 @@
       <c r="N50" s="10"/>
     </row>
     <row r="51" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C51" s="18"/>
+      <c r="C51" s="17"/>
       <c r="F51" s="11"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
@@ -3098,6 +3110,7 @@
       <c r="N51" s="10"/>
     </row>
     <row r="52" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C52" s="18"/>
       <c r="F52" s="11"/>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
@@ -3207,9 +3220,12 @@
     </row>
     <row r="64" spans="3:14" x14ac:dyDescent="0.25">
       <c r="F64" s="11"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
     </row>
     <row r="65" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F65" s="11"/>
@@ -3217,12 +3233,18 @@
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
     </row>
+    <row r="66" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F66" s="11"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G3:G14 F14 G33 G42 G44" numberStoredAsText="1"/>
+    <ignoredError sqref="G4:G15 F15 G34 G43 G45" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
